--- a/数据库架构说明.xlsx
+++ b/数据库架构说明.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8940" windowHeight="6720" tabRatio="629"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8940" windowHeight="6720" tabRatio="629" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
-    <sheet name="Class" sheetId="2" r:id="rId2"/>
+    <sheet name="Klass" sheetId="2" r:id="rId2"/>
     <sheet name=" Problem" sheetId="3" r:id="rId3"/>
     <sheet name="Examination" sheetId="5" r:id="rId4"/>
     <sheet name="ExaminationProblem" sheetId="8" r:id="rId5"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="130">
   <si>
     <t>学生表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,10 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>classes_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>班级表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,10 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RICHTEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,10 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Problem</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -504,6 +492,38 @@
   </si>
   <si>
     <t>总分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>klass_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Klass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>problems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExaminationProblem ManyToMany</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>examinations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExaminationProblem ManyToMany</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -864,17 +884,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -899,7 +921,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -915,7 +937,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -935,59 +957,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -998,61 +1030,61 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1060,67 +1092,75 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
         <v>36</v>
       </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" t="s">
-        <v>111</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1131,9 +1171,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1144,67 +1186,75 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
         <v>46</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1227,10 +1277,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1238,34 +1288,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1287,53 +1337,53 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1355,10 +1405,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1366,34 +1416,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1416,61 +1466,61 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
         <v>59</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>60</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>61</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>62</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>63</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>65</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>66</v>
-      </c>
-      <c r="I4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1490,13 +1540,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D6">
         <v>128</v>
@@ -1516,13 +1566,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1542,13 +1592,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1568,13 +1618,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D9">
         <v>30</v>
@@ -1594,13 +1644,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D10">
         <v>30</v>
@@ -1620,13 +1670,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D11">
         <v>30</v>
@@ -1646,13 +1696,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D12">
         <v>75</v>
@@ -1672,13 +1722,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1698,13 +1748,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1724,13 +1774,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15">
         <v>0</v>

--- a/数据库架构说明.xlsx
+++ b/数据库架构说明.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="136">
   <si>
     <t>学生表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -524,6 +524,30 @@
   </si>
   <si>
     <t>ExaminationProblem ManyToMany</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>correctTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tryTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1015,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1119,53 +1143,76 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>128</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>129</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/数据库架构说明.xlsx
+++ b/数据库架构说明.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8940" windowHeight="6720" tabRatio="629" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8940" windowHeight="6720" tabRatio="629" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Answer" sheetId="7" r:id="rId6"/>
     <sheet name="Grade" sheetId="10" r:id="rId7"/>
     <sheet name="User" sheetId="6" r:id="rId8"/>
+    <sheet name="MyUser" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="147">
   <si>
     <t>学生表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -548,6 +549,50 @@
   </si>
   <si>
     <t>正确次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自加字段 OneToOne - User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限 0学生1教师2管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1041,7 +1086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1849,4 +1894,70 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>